--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A86B9-C4FE-4B8A-B889-49C79F05F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DDC04A-F8DB-408A-BB19-9C6BF49A7B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="図面登録依頼リスト画面" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1358,6 +1358,29 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1567,7 +1590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1632,6 +1655,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1674,7 +1703,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1966,41 +1995,48 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="28" t="s">
+      <c r="N1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COUNTIF(N$7:N$1000,N1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="17" t="s">
         <v>97</v>
       </c>
@@ -2010,44 +2046,72 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="30" t="s">
+      <c r="N2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O4" si="0">COUNTIF(N$7:N$1000,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="22">
         <v>45553</v>
       </c>
       <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="25" t="s">
+      <c r="N3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="32" t="s">
+      <c r="N4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="N5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="38" t="str">
+        <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
+        <v>未実施：44／実施済：0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>98</v>
       </c>
@@ -2057,14 +2121,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -2084,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2113,7 +2177,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2142,7 +2206,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2167,7 +2231,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2192,7 +2256,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2217,7 +2281,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2242,7 +2306,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2267,7 +2331,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2294,7 +2358,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2319,7 +2383,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2344,7 +2408,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2369,7 +2433,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -2394,7 +2458,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -2419,7 +2483,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -2444,7 +2508,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -2469,7 +2533,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -2494,7 +2558,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -2519,7 +2583,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2544,7 +2608,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -2569,7 +2633,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -2598,7 +2662,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -2625,7 +2689,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -2654,7 +2718,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -2679,7 +2743,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -2706,7 +2770,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -2731,7 +2795,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -2756,7 +2820,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -2785,7 +2849,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -2810,7 +2874,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -2835,7 +2899,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -2862,7 +2926,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>31</v>
       </c>
@@ -2887,7 +2951,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>32</v>
       </c>
@@ -2912,7 +2976,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>33</v>
       </c>
@@ -2939,7 +3003,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>34</v>
       </c>
@@ -2962,7 +3026,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>35</v>
       </c>
@@ -2985,7 +3049,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>36</v>
       </c>
@@ -3014,7 +3078,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>37</v>
       </c>
@@ -3039,7 +3103,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>38</v>
       </c>
@@ -3062,7 +3126,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>39</v>
       </c>
@@ -3089,7 +3153,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>40</v>
       </c>
@@ -3116,7 +3180,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>41</v>
       </c>
@@ -3141,7 +3205,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>42</v>
       </c>
@@ -3166,7 +3230,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>43</v>
       </c>
@@ -3191,7 +3255,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>44</v>
       </c>
@@ -3234,6 +3298,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -3456,7 +3531,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3465,25 +3540,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68EBDF7-7DC5-4353-8085-2431CE5FDE6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68EBDF7-7DC5-4353-8085-2431CE5FDE6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF8EA31-9983-4FA8-BD82-B0EFB3049DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536E1E13-866E-434B-BA02-5559906A174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="689" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2292,6 +2292,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2333,28 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8528,10 +8528,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDA03C2-5FB6-4BD7-A713-4B95FD525905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DF3F20-8155-87F1-D739-74D64372AED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8547,8 +8547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="10953750"/>
-          <a:ext cx="18373103" cy="9907383"/>
+          <a:off x="682625" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8572,10 +8572,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF254A1-1F31-4B50-84D9-B7BCE7EAC0B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBB89CD-6CA9-3B7E-A780-21E3232728EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8591,52 +8591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="714375"/>
-          <a:ext cx="18373103" cy="9907383"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>542303</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30129763-6582-443B-B668-C6548CC40B93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19888200" y="714375"/>
-          <a:ext cx="18373103" cy="9907383"/>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8647,16 +8603,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30307</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>623455</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8671,8 +8627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="1270000"/>
-          <a:ext cx="685801" cy="317500"/>
+          <a:off x="4879398" y="2105602"/>
+          <a:ext cx="593148" cy="786534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8713,23 +8669,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07D91FF-DDB4-45DE-AF4B-25493E62BFB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE1F6EF-47CE-4456-B4DA-3E2E6BBBE517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8737,13 +8693,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12731749"/>
-          <a:ext cx="6489700" cy="3508376"/>
+          <a:off x="1951181" y="3062431"/>
+          <a:ext cx="6326910" cy="574387"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 39441"/>
-            <a:gd name="adj2" fmla="val -66124"/>
+            <a:gd name="adj1" fmla="val -4146"/>
+            <a:gd name="adj2" fmla="val -115918"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -8773,7 +8729,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>No.21</a:t>
+            <a:t>No.27</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8783,267 +8739,222 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>新しい画面を開いて図面登録依頼リストの内容を表示する。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>プルダウンメニューは、「ブランク」、「完了」、「原図無」の</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.22</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>タイトルが下記の通り表示されること</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Drawing Search and Print System [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>図面登録依頼リスト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.23</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>「図面登録依頼リスト </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>yyyy/mm/dd HH:MM:SS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>」と表示されている</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.24</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>依頼リストのラベルは、左から依頼</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、依頼内容、図番、依頼者、部署名と表示されていること</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.25</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>前画面でリスト表示されていた依頼内容から、項目ラベルで示されている項目が転記されている</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>テキスト表示で、入力可能項目はない。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>印刷画面を閉じるボタンは用意されていないので、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ボタンをクリックすると、画面を閉じられる。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>画面遷移はないこと</a:t>
+            <a:t>項目の選択が可能になっている。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D9ED53-2F10-57A0-7F06-37FEB4D642F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="21193125"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A83171-B381-8AD8-7F22-1626FAF10C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="31432500"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC9B422-7861-BAC1-C03B-F19808888909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="42429545"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F7C9BA-2597-7C7A-26E1-04957CF21FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="52612636"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>135659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
+        <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79A66DA-F917-4F6C-91B9-F418C33E21D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153DB729-B9DD-F251-9C8A-093F07827AF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9051,8 +8962,206 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36217224" y="2095500"/>
-          <a:ext cx="1628776" cy="254000"/>
+          <a:off x="13242636" y="12258386"/>
+          <a:ext cx="6326910" cy="1821296"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val 98152"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メッセージマスタに登録されているメッセージがプルダウンメニューで表示されること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>288636</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Speech Bubble: Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AE57E8-0CA2-D5C7-2F2B-6842E6CFAD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2366818" y="12725978"/>
+          <a:ext cx="2759364" cy="626341"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39343"/>
+            <a:gd name="adj2" fmla="val -106456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.28</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>610466</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B32424D-999F-403D-93B9-1F0169512CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4866409" y="12278591"/>
+          <a:ext cx="593148" cy="242454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9093,23 +9202,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502228</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
+        <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84165BC-A38D-4B09-8099-A94BE8198BD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648190CA-4B42-DDA3-BFBC-5335EB54C70C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9117,146 +9226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34623375" y="13335000"/>
-          <a:ext cx="2533649" cy="349250"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46411"/>
-            <a:gd name="adj2" fmla="val 155295"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>別ウィンドウでブラウザを起動する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE1F6EF-47CE-4456-B4DA-3E2E6BBBE517}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6426200" y="746125"/>
-          <a:ext cx="495300" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37460"/>
-            <a:gd name="adj2" fmla="val 98152"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>444501</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167F6E31-4E33-4AF5-BD38-7ECC3780C53B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25819100" y="1476375"/>
-          <a:ext cx="685801" cy="317500"/>
+          <a:off x="8780318" y="12555682"/>
+          <a:ext cx="2805546" cy="2130136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9297,23 +9268,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+        <xdr:cNvPr id="37" name="Speech Bubble: Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91BF172-576B-4036-A4C4-C734B5E2FF2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778EE579-FCE8-6396-443D-A2A793B96FFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9321,212 +9292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33874075" y="14620874"/>
-          <a:ext cx="4051300" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -42868"/>
-            <a:gd name="adj2" fmla="val -134449"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>原図庫作業依頼テーブル、原図庫作業依頼展開テーブルから未着手ジョブが検索され依頼リストが更新されること</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB7C364-76EE-4E95-A568-11F5C20356ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="55419624" y="2095500"/>
-          <a:ext cx="1628776" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33AE65B-2746-4F82-8D93-4F4CD8D979E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53825775" y="13335000"/>
-          <a:ext cx="2533649" cy="349250"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46411"/>
-            <a:gd name="adj2" fmla="val 155295"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>別ウィンドウでブラウザを起動する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08A33F7-F06C-4114-9F02-B05C08B6415A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25644475" y="952500"/>
-          <a:ext cx="495300" cy="333375"/>
+          <a:off x="13277273" y="15410295"/>
+          <a:ext cx="6326910" cy="1821296"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -9557,151 +9324,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.28</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3304AB86-58E8-4628-8FCA-09B5073F5216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18548350" y="10922000"/>
-          <a:ext cx="492125" cy="269875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3826A19D-80EF-4EB6-8B96-653BA9517941}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13842999" y="11541124"/>
-          <a:ext cx="5324476" cy="968376"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37545"/>
-            <a:gd name="adj2" fmla="val -101510"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.26</a:t>
+            <a:t>選択した項目がリストに表示されること</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9711,21 +9348,17 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>印刷画面を閉じるボタンは用意されていないので、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>×</a:t>
-          </a:r>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>ボタンをクリックすると、画面を閉じられる。</a:t>
+            <a:t>メッセージマスタに登録されているメッセージがプルダウンメニューで表示されること。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9735,252 +9368,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>画面遷移はないこと</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA30420-EBAC-4DEB-801A-75FD192EDA69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="892175" y="10969625"/>
-          <a:ext cx="2806700" cy="206375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>412749</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9FB890-AFF5-4894-A8BD-BAD0E6D33F9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6584949" y="11620499"/>
-          <a:ext cx="6524625" cy="5191125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>542303</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558ADF79-8F48-49E1-998C-0EEB965EB9CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19888200" y="10953750"/>
-          <a:ext cx="18373103" cy="9907383"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B86292-0734-4311-A1DE-0C6E2E666819}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20348575" y="16875124"/>
-          <a:ext cx="6492875" cy="3508376"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2095"/>
-            <a:gd name="adj2" fmla="val -74721"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>No.21</a:t>
+            <a:t>選択した項目がリストに表示されること</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9990,549 +9378,8 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>新しい画面を開いて図面登録依頼リストの内容を表示する。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.22</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>タイトルが下記の通り表示されること</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Drawing Search and Print System [</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>図面登録依頼リスト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.23</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>「図面登録依頼リスト </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>yyyy/mm/dd HH:MM:SS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>」と表示されている</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.24</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>依頼リストのラベルは、左から依頼</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、依頼内容、図番、依頼者、部署名と表示されていること</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.25</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>前画面でリスト表示されていた依頼内容から、項目ラベルで示されている項目が転記されている</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>テキスト表示で、入力可能項目はない。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>印刷画面を閉じるボタンは用意されていないので、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ボタンをクリックすると、画面を閉じられる。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>画面遷移はないこと</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A445399A-E13B-46E3-B183-34462DB9B446}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37798375" y="10922000"/>
-          <a:ext cx="492125" cy="269875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Speech Bubble: Rectangle 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863D7D56-B83D-4A23-8F52-F76B9B13FBC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="33140649" y="11572874"/>
-          <a:ext cx="5327651" cy="968376"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37545"/>
-            <a:gd name="adj2" fmla="val -101510"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No.26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>印刷画面を閉じるボタンは用意されていないので、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ボタンをクリックすると、画面を閉じられる。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>画面遷移はないこと</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C564BD3E-B1D3-419C-B339-F8958FE2D861}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20094575" y="10969625"/>
-          <a:ext cx="2806700" cy="206375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>412749</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D71767-8207-4040-91F6-C95E6A5E08BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25787349" y="11620499"/>
-          <a:ext cx="6524625" cy="5191125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択した項目がリストに表示されること</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10807,7 +9654,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:M38"/>
+      <selection activeCell="M34" sqref="G34:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -10828,13 +9675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="18"/>
       <c r="N1" s="23" t="s">
         <v>100</v>
@@ -10845,10 +9692,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="17" t="s">
         <v>97</v>
       </c>
@@ -10867,10 +9714,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="5" t="s">
         <v>99</v>
       </c>
@@ -10890,13 +9737,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="18"/>
       <c r="N4" s="23" t="s">
         <v>103</v>
@@ -10907,13 +9754,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="20"/>
       <c r="N5" s="23" t="s">
         <v>104</v>
@@ -10933,14 +9780,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -10961,7 +9808,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="46">
+      <c r="A7" s="32">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -10990,7 +9837,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="46">
+      <c r="A8" s="32">
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
@@ -11019,7 +9866,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="46">
+      <c r="A9" s="32">
         <v>3</v>
       </c>
       <c r="B9" s="11"/>
@@ -11044,7 +9891,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="46">
+      <c r="A10" s="32">
         <v>4</v>
       </c>
       <c r="B10" s="11"/>
@@ -11069,7 +9916,7 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="46">
+      <c r="A11" s="32">
         <v>5</v>
       </c>
       <c r="B11" s="11"/>
@@ -11094,7 +9941,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="46">
+      <c r="A12" s="32">
         <v>6</v>
       </c>
       <c r="B12" s="11"/>
@@ -11119,7 +9966,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="46">
+      <c r="A13" s="32">
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -11144,7 +9991,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="46">
+      <c r="A14" s="32">
         <v>8</v>
       </c>
       <c r="B14" s="11"/>
@@ -11171,7 +10018,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="46">
+      <c r="A15" s="32">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -11196,7 +10043,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="46">
+      <c r="A16" s="32">
         <v>10</v>
       </c>
       <c r="B16" s="11"/>
@@ -11221,7 +10068,7 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="46">
+      <c r="A17" s="32">
         <v>11</v>
       </c>
       <c r="B17" s="11"/>
@@ -11246,7 +10093,7 @@
       <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="46">
+      <c r="A18" s="32">
         <v>12</v>
       </c>
       <c r="B18" s="11"/>
@@ -11271,7 +10118,7 @@
       <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="46">
+      <c r="A19" s="32">
         <v>13</v>
       </c>
       <c r="B19" s="11"/>
@@ -11296,7 +10143,7 @@
       <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="46">
+      <c r="A20" s="32">
         <v>14</v>
       </c>
       <c r="B20" s="11"/>
@@ -11321,7 +10168,7 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="46">
+      <c r="A21" s="32">
         <v>15</v>
       </c>
       <c r="B21" s="11"/>
@@ -11346,7 +10193,7 @@
       <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="46">
+      <c r="A22" s="32">
         <v>16</v>
       </c>
       <c r="B22" s="11"/>
@@ -11371,7 +10218,7 @@
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="46">
+      <c r="A23" s="32">
         <v>17</v>
       </c>
       <c r="B23" s="11"/>
@@ -11396,7 +10243,7 @@
       <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="46">
+      <c r="A24" s="32">
         <v>18</v>
       </c>
       <c r="B24" s="11"/>
@@ -11421,7 +10268,7 @@
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="46">
+      <c r="A25" s="32">
         <v>19</v>
       </c>
       <c r="B25" s="11"/>
@@ -11446,7 +10293,7 @@
       <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="46">
+      <c r="A26" s="32">
         <v>20</v>
       </c>
       <c r="B26" s="11"/>
@@ -11475,7 +10322,7 @@
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="46">
+      <c r="A27" s="32">
         <v>21</v>
       </c>
       <c r="B27" s="11"/>
@@ -11502,7 +10349,7 @@
       <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="46">
+      <c r="A28" s="32">
         <v>22</v>
       </c>
       <c r="B28" s="11"/>
@@ -11531,7 +10378,7 @@
       <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="46">
+      <c r="A29" s="32">
         <v>23</v>
       </c>
       <c r="B29" s="11"/>
@@ -11556,7 +10403,7 @@
       <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="46">
+      <c r="A30" s="32">
         <v>24</v>
       </c>
       <c r="B30" s="11"/>
@@ -11583,7 +10430,7 @@
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="46">
+      <c r="A31" s="32">
         <v>25</v>
       </c>
       <c r="B31" s="11"/>
@@ -11608,7 +10455,7 @@
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A32" s="46">
+      <c r="A32" s="32">
         <v>26</v>
       </c>
       <c r="B32" s="11"/>
@@ -12130,10 +10977,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12155,10 +11002,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12180,1093 +11027,1093 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="54" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="F4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="44">
+      <c r="I4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="30">
         <v>45413.607766203706</v>
       </c>
-      <c r="L4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="45" t="s">
+      <c r="N4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="42" t="s">
+      <c r="R4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V4" s="42" t="s">
+      <c r="U4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Y4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="42" t="s">
+      <c r="F5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="44">
+      <c r="I5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="30">
         <v>45413.607766203706</v>
       </c>
-      <c r="L5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="45" t="s">
+      <c r="N5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T5" s="42" t="s">
+      <c r="R5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V5" s="42" t="s">
+      <c r="U5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y5" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Y5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z5" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="42" t="s">
+      <c r="F6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="44">
+      <c r="J6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="30">
         <v>45413.607766203706</v>
       </c>
-      <c r="L6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M6" s="42" t="s">
+      <c r="L6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="45" t="s">
+      <c r="N6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T6" s="42" t="s">
+      <c r="R6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V6" s="42" t="s">
+      <c r="U6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="X6" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y6" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z6" s="43" t="s">
+      <c r="Y6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="44">
+      <c r="I7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="30">
         <v>45404.588206018518</v>
       </c>
-      <c r="L7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="42" t="s">
+      <c r="L7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="45" t="s">
+      <c r="N7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T7" s="42" t="s">
+      <c r="R7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y7" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z7" s="43" t="s">
+      <c r="Y7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z7" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="44">
+      <c r="I8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="30">
         <v>44480.539965277778</v>
       </c>
-      <c r="L8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="42" t="s">
+      <c r="L8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="45" t="s">
+      <c r="N8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T8" s="42" t="s">
+      <c r="R8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V8" s="42" t="s">
+      <c r="U8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="W8" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z8" s="43" t="s">
+      <c r="Y8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z8" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="42" t="s">
+      <c r="F9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="44">
+      <c r="I9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="30">
         <v>44480.482638888891</v>
       </c>
-      <c r="L9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" s="42" t="s">
+      <c r="L9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="45" t="s">
+      <c r="N9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T9" s="42" t="s">
+      <c r="R9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9" s="42" t="s">
+      <c r="U9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V9" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="W9" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y9" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z9" s="43" t="s">
+      <c r="Y9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z9" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="42" t="s">
+      <c r="F10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="44">
+      <c r="J10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="30">
         <v>45495.587199074071</v>
       </c>
-      <c r="L10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="42" t="s">
+      <c r="L10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="45" t="s">
+      <c r="N10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T10" s="42" t="s">
+      <c r="R10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V10" s="42" t="s">
+      <c r="U10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V10" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="W10" s="42" t="s">
+      <c r="W10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="X10" s="42" t="s">
+      <c r="X10" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="Y10" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z10" s="43" t="s">
+      <c r="Y10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z10" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="42" t="s">
+      <c r="F11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="44">
+      <c r="J11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="30">
         <v>45495.589328703703</v>
       </c>
-      <c r="L11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="45" t="s">
+      <c r="N11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" s="42" t="s">
+      <c r="R11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V11" s="42" t="s">
+      <c r="U11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="W11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="X11" s="42" t="s">
+      <c r="X11" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z11" s="43" t="s">
+      <c r="Y11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z11" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="42" t="s">
+      <c r="F12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="44">
+      <c r="J12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="30">
         <v>45540.445405092592</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="42" t="s">
+      <c r="L12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q12" s="45" t="s">
+      <c r="N12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T12" s="42" t="s">
+      <c r="R12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V12" s="42" t="s">
+      <c r="U12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V12" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="W12" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X12" s="42" t="s">
+      <c r="X12" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y12" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z12" s="43" t="s">
+      <c r="Y12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z12" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="42" t="s">
+      <c r="F13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="44">
+      <c r="J13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="30">
         <v>45540.445844907408</v>
       </c>
-      <c r="L13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="42" t="s">
+      <c r="L13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="45" t="s">
+      <c r="N13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="42" t="s">
+      <c r="R13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V13" s="42" t="s">
+      <c r="U13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W13" s="42" t="s">
+      <c r="W13" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X13" s="42" t="s">
+      <c r="X13" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z13" s="43" t="s">
+      <c r="Y13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z13" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="42" t="s">
+      <c r="F14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="44">
+      <c r="J14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="30">
         <v>45540.450439814813</v>
       </c>
-      <c r="L14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="42" t="s">
+      <c r="L14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q14" s="45" t="s">
+      <c r="N14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T14" s="42" t="s">
+      <c r="R14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V14" s="42" t="s">
+      <c r="U14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V14" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="W14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X14" s="42" t="s">
+      <c r="X14" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z14" s="43" t="s">
+      <c r="Y14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z14" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="42" t="s">
+      <c r="F15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="44">
+      <c r="J15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="30">
         <v>45540.454432870371</v>
       </c>
-      <c r="L15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="42" t="s">
+      <c r="L15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" s="45" t="s">
+      <c r="N15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T15" s="42" t="s">
+      <c r="R15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T15" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V15" s="42" t="s">
+      <c r="U15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V15" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="W15" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X15" s="42" t="s">
+      <c r="X15" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y15" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z15" s="43" t="s">
+      <c r="Y15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z15" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="42" t="s">
+      <c r="F16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="44">
+      <c r="J16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="30">
         <v>45540.446388888886</v>
       </c>
-      <c r="L16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="42" t="s">
+      <c r="L16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="45" t="s">
+      <c r="N16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="R16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="42" t="s">
+      <c r="R16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V16" s="42" t="s">
+      <c r="U16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V16" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W16" s="42" t="s">
+      <c r="W16" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X16" s="42" t="s">
+      <c r="X16" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z16" s="43" t="s">
+      <c r="Y16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z16" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" s="39" t="s">
+      <c r="AD21" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13288,232 +12135,232 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="26" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:30" ht="54" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="F4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="44">
+      <c r="I4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="30">
         <v>45404.588206018518</v>
       </c>
-      <c r="L4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="42" t="s">
+      <c r="N4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="42" t="s">
+      <c r="R4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="U4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V4" s="42" t="s">
+      <c r="U4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="Y4" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Y4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:30" ht="54" x14ac:dyDescent="0.4">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="43" t="s">
+      <c r="F8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AD10" s="39" t="s">
+      <c r="AD10" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13535,10 +12382,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13553,17 +12400,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864BE5C6-1094-4FDA-94B5-447EA185B640}">
   <dimension ref="B2:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC83" sqref="AC83"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13575,26 +12422,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -13817,26 +12644,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68EBDF7-7DC5-4353-8085-2431CE5FDE6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13853,4 +12681,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3DE19-2528-4570-838E-F768361F5EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA38F2-57D4-447F-97A7-AC32F882D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2562,6 +2562,12 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2603,12 +2609,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14473,13 +14473,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="17"/>
       <c r="N1" s="22" t="s">
         <v>100</v>
@@ -14490,10 +14490,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="16" t="s">
         <v>97</v>
       </c>
@@ -14512,10 +14512,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="5" t="s">
         <v>99</v>
       </c>
@@ -14535,13 +14535,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="17"/>
       <c r="N4" s="22" t="s">
         <v>103</v>
@@ -14552,13 +14552,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="19"/>
       <c r="N5" s="22" t="s">
         <v>104</v>
@@ -14578,14 +14578,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -16262,7 +16262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35669316-9340-44B4-8E0A-6A7D95204DAD}">
   <dimension ref="B2:AD2"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -16285,7 +16285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5B051-4090-47D7-9FBA-CA9DF52A7D60}">
   <dimension ref="B2:AD2"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -16308,7 +16308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F53A48-C695-492E-86D9-5ECB1BF21E9F}">
   <dimension ref="B2:AD21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -17414,7 +17414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8790D499-99B6-44F2-B944-E8515B005483}">
   <dimension ref="B2:AD10"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -17659,7 +17659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBD18B4-49AD-43A4-92AD-E90D68B34827}">
   <dimension ref="B2:AD2"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -17847,7 +17847,7 @@
       <c r="R4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="32" t="s">
         <v>137</v>
       </c>
       <c r="T4" s="27" t="s">
@@ -17919,19 +17919,19 @@
       <c r="E8" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="46" t="s">
+      <c r="F8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>137</v>
       </c>
     </row>
@@ -18155,7 +18155,7 @@
       <c r="R100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S100" s="47">
+      <c r="S100" s="33">
         <v>45559.549930555557</v>
       </c>
       <c r="T100" s="27" t="s">
@@ -18230,7 +18230,7 @@
       <c r="AS100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AT100" s="47">
+      <c r="AT100" s="33">
         <v>45559.552199074074</v>
       </c>
       <c r="AU100" s="27" t="s">
@@ -18344,7 +18344,7 @@
       <c r="I104" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="J104" s="47">
+      <c r="J104" s="33">
         <v>45559.549930555557</v>
       </c>
       <c r="AC104" s="27" t="s">
@@ -18371,7 +18371,7 @@
       <c r="AJ104" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="AK104" s="47">
+      <c r="AK104" s="33">
         <v>45559.552199074074</v>
       </c>
     </row>
@@ -19695,26 +19695,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -19937,26 +19917,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68EBDF7-7DC5-4353-8085-2431CE5FDE6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19973,4 +19954,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA38F2-57D4-447F-97A7-AC32F882D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD41F35-7178-42B7-A943-543439F3A92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,36 +30,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="194">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テスト前提条件</t>
@@ -69,7 +58,7 @@
     <rPh sb="5" eb="7">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能 大項目</t>
@@ -79,7 +68,7 @@
     <rPh sb="3" eb="6">
       <t>ダイコウモク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能 中項目</t>
@@ -89,7 +78,7 @@
     <rPh sb="4" eb="6">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>詳細項目
@@ -112,7 +101,7 @@
     <rPh sb="15" eb="16">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>確認内容</t>
@@ -122,11 +111,11 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>OK/NG</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>確認日</t>
@@ -136,43 +125,43 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能名</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・無し</t>
     <rPh sb="1" eb="2">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト仕様書兼報告書</t>
@@ -185,14 +174,14 @@
     <rPh sb="7" eb="10">
       <t>ホウコクショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ヘッダ部</t>
     <rPh sb="3" eb="4">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面起動時</t>
@@ -205,7 +194,7 @@
     <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>図面登録依頼リスト</t>
@@ -218,7 +207,7 @@
     <rPh sb="4" eb="6">
       <t>イライ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面項目</t>
@@ -228,35 +217,35 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>フレーム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>田中克昌</t>
     <rPh sb="0" eb="4">
       <t>タナカカツマサ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>説明文</t>
     <rPh sb="0" eb="3">
       <t>セツメイブン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>図番</t>
     <rPh sb="0" eb="2">
       <t>ズバン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>起動方法</t>
@@ -266,7 +255,7 @@
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>別ウィンドウでブラウザを起動する</t>
@@ -276,7 +265,7 @@
     <rPh sb="12" eb="14">
       <t>キドウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「図面登録依頼」と表示されている</t>
@@ -292,44 +281,44 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Close</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「Close」ボタンが表示されていること</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クリック</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>×ボタン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼リスト</t>
     <rPh sb="0" eb="2">
       <t>イライ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼ID</t>
     <rPh sb="0" eb="2">
       <t>イライ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タイトルが下記の通り表示されること
@@ -352,7 +341,7 @@
     <rPh sb="55" eb="57">
       <t>イライ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「図面登録依頼リスト」と表示されている</t>
@@ -368,12 +357,12 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>処理が済んだらチェックを入力して下さい。
 その後に更新するために「更新」をクリックして下さい。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼更新ボタン</t>
@@ -383,7 +372,7 @@
     <rPh sb="2" eb="4">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>印刷画面ボタン</t>
@@ -393,7 +382,7 @@
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作業履歴ボタン</t>
@@ -403,7 +392,7 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼項目</t>
@@ -413,7 +402,7 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「依頼更新」ボタンがアクティブ状態で表示されていること</t>
@@ -429,7 +418,7 @@
     <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「印刷画面」ボタンがアクティブ状態で表示されていること</t>
@@ -445,7 +434,7 @@
     <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「作業履歴」ボタンがアクティブ状態で表示されていること</t>
@@ -461,7 +450,7 @@
     <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼リストのラベルは、左から
@@ -491,39 +480,39 @@
     <rPh sb="52" eb="54">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>チェック</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼内容</t>
     <rPh sb="0" eb="4">
       <t>イライナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼者</t>
     <rPh sb="0" eb="3">
       <t>イライシャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>部署名</t>
     <rPh sb="0" eb="3">
       <t>ブショメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>図番展開後の図番</t>
@@ -557,7 +546,7 @@
     <rPh sb="38" eb="40">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>原図庫作業依頼テーブルの依頼ID</t>
@@ -573,7 +562,7 @@
     <rPh sb="12" eb="14">
       <t>イライ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼した時刻が「HH:MM」で表示されている
@@ -605,7 +594,7 @@
     <rPh sb="62" eb="64">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>完了情報登録ボタン</t>
@@ -615,7 +604,7 @@
     <rPh sb="4" eb="6">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「完了情報登録」ボタンがアクティブ状態で表示されていること</t>
@@ -634,7 +623,7 @@
     <rPh sb="20" eb="22">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼更新</t>
@@ -644,7 +633,7 @@
     <rPh sb="2" eb="4">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>原図庫作業依頼テーブル、原図庫作業依頼展開テーブルから未着手ジョブが検索され依頼リストが更新されること</t>
@@ -681,14 +670,14 @@
     <rPh sb="44" eb="46">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>印刷画面</t>
     <rPh sb="0" eb="4">
       <t>インサツガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新しい画面を開いて図面登録依頼リストの内容を表示する。</t>
@@ -716,7 +705,7 @@
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「図面登録依頼リスト yyyy/mm/dd HH:MM:SS」と表示されている</t>
@@ -732,7 +721,7 @@
     <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼リストのラベルは、左から
@@ -759,14 +748,14 @@
     <rPh sb="38" eb="40">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>項目ラベル</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>前画面でリスト表示されていた依頼内容から、項目ラベルで示されている項目が転記されている
@@ -807,7 +796,7 @@
     <rPh sb="56" eb="58">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>印刷画面を閉じるボタンは用意されていないので、×ボタンをクリックすると、画面を閉じられる。
@@ -833,7 +822,7 @@
     <rPh sb="48" eb="50">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼リスト操作</t>
@@ -843,14 +832,14 @@
     <rPh sb="5" eb="7">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>初期値は、「ブランク」となっている</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プルダウンメニューは、「ブランク」、「完了」、「原図無」の3項目の選択が可能になっている。</t>
@@ -863,18 +852,18 @@
     <rPh sb="36" eb="38">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メッセージマスタに登録されているメッセージがプルダウンメニューで表示されること。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>初期値は、ブランクになっている</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>任意の依頼を選択し「原紙無」に変更</t>
@@ -896,7 +885,7 @@
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>任意の依頼を選択し「完了」に変更</t>
@@ -915,7 +904,7 @@
     <rPh sb="14" eb="16">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>チェックを完了にしたものは、メッセージに「規格品です」を選択する</t>
@@ -928,7 +917,7 @@
     <rPh sb="28" eb="30">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>チェックを原紙無にしたものは、メッセージに「AP・原紙がありませんでした」を選択する</t>
@@ -944,7 +933,7 @@
     <rPh sb="38" eb="40">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>選択した項目がリストに表示されること</t>
@@ -957,7 +946,7 @@
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>完了情報登録</t>
@@ -970,7 +959,7 @@
     <rPh sb="4" eb="6">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面入力した作業完了項目（完了 or 原図無の項目）の内容で、以下のテーブルがが更新されること。</t>
@@ -995,7 +984,7 @@
     <rPh sb="40" eb="42">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>原図庫作業依頼テーブル
@@ -1022,7 +1011,7 @@
     <rPh sb="48" eb="50">
       <t>ニチジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">原図庫作業依頼展開テーブル
@@ -1071,7 +1060,7 @@
     <rPh sb="109" eb="111">
       <t>ニチジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作業履歴画面</t>
@@ -1084,7 +1073,7 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タイトルが下記の通り表示されること
@@ -1110,7 +1099,7 @@
     <rPh sb="57" eb="59">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>「図面登録依頼履歴」と表示されている</t>
@@ -1129,7 +1118,7 @@
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>以下の説明文が表示されていること
@@ -1144,11 +1133,11 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Closeボタン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼履歴リスト</t>
@@ -1158,7 +1147,7 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼リストのラベルは、左から
@@ -1203,7 +1192,7 @@
     <rPh sb="53" eb="55">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼履歴項目</t>
@@ -1216,7 +1205,7 @@
     <rPh sb="4" eb="6">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>過去10日間分の完了依頼（図面無を含む）の図面が、原図庫作業依頼テーブルに存在する場合</t>
@@ -1226,7 +1215,7 @@
     <rPh sb="41" eb="43">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・図番単位に完了日時の降順に表示されている。
@@ -1238,7 +1227,7 @@
     <rPh sb="227" eb="230">
       <t>イライシャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>過去10日間分の完了依頼（図面無を含む）の図面が、原図庫作業依頼テーブルに存在しない場合</t>
@@ -1248,7 +1237,7 @@
     <rPh sb="42" eb="44">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1290,7 +1279,7 @@
     <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>図面登録依頼リスト画面の操作</t>
@@ -1309,7 +1298,7 @@
     <rPh sb="12" eb="14">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>図面登録依頼リスト画面がクローズされること。
@@ -1326,14 +1315,14 @@
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「Close」ボタンが表示されている。</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作業履歴画面がクローズされること。
@@ -1356,15 +1345,15 @@
     <rPh sb="26" eb="28">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>DMS40201</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>図面登録依頼リスト画面</t>
@@ -1380,38 +1369,38 @@
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NG</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NG⇒OK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OLD</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NEW</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2171,19 +2160,111 @@
     <rPh sb="0" eb="3">
       <t>マエイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセスログ</t>
+  </si>
+  <si>
+    <t>アクセスログ
+※ファイルパスは、
+「D:\Tomcat8\webapps\DRASAP\WEB-INF\classes\log4j.properties」内の
+「log4j.appender.DRFILE_A.File=D:\\Tomcat8\\DRASAP\\logs\\access.log」で定義されている</t>
+    <rPh sb="77" eb="78">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストNo.33の続き</t>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリック</t>
+  </si>
+  <si>
+    <t>アクセスログに図面登録依頼リストで「完了」、または「原紙無」の入力ががあったことを示す以下のログが出力されていること。
+[yyMMddHHmmss],[アクセス端末IPアドレス],[ユーザID],[氏名],[部署名],05
+[yyMMddHHmmss],[アクセス端末IPアドレス],[ユーザID],[氏名],[部署名],05
+ログは依頼単位に出力されていること。</t>
+    <rPh sb="7" eb="9">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2284,8 +2365,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2325,6 +2412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,95 +2555,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2559,62 +2655,87 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14449,10 +14570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE8FD0-4ABB-4C07-B80B-0BBE3978AB23}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -14565,7 +14686,7 @@
       </c>
       <c r="O5" s="23" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：0／実施済：44</v>
+        <v>未実施：1／実施済：44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -16003,6 +16124,39 @@
       </c>
       <c r="Q50" s="14"/>
     </row>
+    <row r="51" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="52">
+        <v>45</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="54"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="N51" s="49"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D6:I6"/>
@@ -16012,7 +16166,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="A7" location="No.1!A1" display="No.1!A1" xr:uid="{3AB58AE5-DA9C-417B-9B13-7A8984FB4080}"/>
     <hyperlink ref="A8" location="'No.2~8'!A1" display="'No.2~8'!A1" xr:uid="{9C39F79D-5CBF-48C3-8494-BBCD151FAB3B}"/>
@@ -16221,7 +16375,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16252,7 +16406,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16275,7 +16429,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16298,7 +16452,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17404,7 +17558,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17649,7 +17803,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17672,7 +17826,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17695,7 +17849,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18376,7 +18530,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19688,13 +19842,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -19917,27 +20091,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68EBDF7-7DC5-4353-8085-2431CE5FDE6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19954,23 +20127,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS40201_図面登録依頼リスト画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD41F35-7178-42B7-A943-543439F3A92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BBD33-856D-4F42-A473-26197D9BB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,18 +24,30 @@
     <sheet name="No.36~40" sheetId="12" r:id="rId9"/>
     <sheet name="No.41~43" sheetId="13" r:id="rId10"/>
     <sheet name="No.44" sheetId="14" r:id="rId11"/>
+    <sheet name="No.45" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="194">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2565,7 +2577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2664,6 +2676,24 @@
     <xf numFmtId="22" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2706,34 +2736,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -3747,6 +3753,1340 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300327</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>219289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B139753-AFC6-C43E-5F8D-128BCDC5944D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="21093545"/>
+          <a:ext cx="11383964" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>296962</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C03376-CBC7-452E-964E-4DA5C5ADFC7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>296962</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B6D836-2CCB-466C-882C-58A132AE3072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>300328</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>219289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAC9D4C-F89C-991B-2B73-8A074B231B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20764500" y="21093545"/>
+          <a:ext cx="11383964" cy="7735380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>452826</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC01A48-2D04-8D0C-DF73-6D440E0B086C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20764500" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>452826</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3A15F7-17AE-FFAA-20E6-8381E27A2A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20764500" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>583044</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217919</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>196272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EDAF99-867B-4E77-B7AD-4BDA19940DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124862" y="10284112"/>
+          <a:ext cx="1020330" cy="337705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57B1D66-EB5B-4553-95A0-26BAF5A97890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35833050" y="16135350"/>
+          <a:ext cx="2533649" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46411"/>
+            <a:gd name="adj2" fmla="val 155295"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>別ウィンドウでブラウザを起動する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408420</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>49068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>217920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>148648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F930F5-A6A8-41AD-8C14-6348442CB589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5950238" y="9747250"/>
+          <a:ext cx="502227" cy="342034"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val 98152"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>583044</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>217920</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>178954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B82675-E3C1-4CBB-ABC8-0715398FF134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25948119" y="12885303"/>
+          <a:ext cx="1006476" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>408420</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>217920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>131330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F7664D-4420-43CA-A213-FD8CA10F521F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25773495" y="12357100"/>
+          <a:ext cx="495300" cy="337705"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37460"/>
+            <a:gd name="adj2" fmla="val 98152"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A978FF4C-099D-4360-9A19-2AFD5FCB225B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22028727" y="24661092"/>
+          <a:ext cx="8520546" cy="1073727"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38223"/>
+            <a:gd name="adj2" fmla="val -90777"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスログに図面登録依頼リストで「完了」、または「原紙無」の入力ががあったことを示す以下のログが出力されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセス端末</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセス端末</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログは依頼単位に出力されていること。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Speech Bubble: Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382307E1-0470-DEED-97BB-DCFCE30BBF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2078181" y="23570047"/>
+          <a:ext cx="8520546" cy="1073727"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38223"/>
+            <a:gd name="adj2" fmla="val -90777"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスログに図面登録依頼リストで「完了」、または「原紙無」の入力ががあったことを示す以下のログが出力されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセス端末</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセス端末</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>],05</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログは依頼単位に出力されていること。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11133,6 +12473,50 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34241E37-734C-F5F8-5E58-61AF0BC3198C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="3567545"/>
+          <a:ext cx="18535894" cy="10084895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -11156,7 +12540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11164,50 +12548,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="682625" y="13747750"/>
-          <a:ext cx="18290553" cy="9907383"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>542303</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34241E37-734C-F5F8-5E58-61AF0BC3198C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="682625" y="3508375"/>
           <a:ext cx="18290553" cy="9907383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14572,8 +15912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE8FD0-4ABB-4C07-B80B-0BBE3978AB23}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -14594,27 +15934,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="17"/>
       <c r="N1" s="22" t="s">
         <v>100</v>
       </c>
       <c r="O1" s="2">
         <f>COUNTIF(N$7:N$1000,N1)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="16" t="s">
         <v>97</v>
       </c>
@@ -14633,10 +15973,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="5" t="s">
         <v>99</v>
       </c>
@@ -14656,13 +15996,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="17"/>
       <c r="N4" s="22" t="s">
         <v>103</v>
@@ -14673,20 +16013,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="19"/>
       <c r="N5" s="22" t="s">
         <v>104</v>
       </c>
       <c r="O5" s="23" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：1／実施済：44</v>
+        <v>未実施：0／実施済：45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -14699,14 +16039,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -16125,37 +17465,43 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="52">
+      <c r="A51" s="36">
         <v>45</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="54" t="s">
+      <c r="G51" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="48" t="s">
+      <c r="H51" s="38"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="N51" s="49"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="51"/>
+      <c r="N51" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O51" s="13">
+        <v>45565</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q51" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16412,6 +17758,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693AFF7-1BBF-4CA3-A421-C8876CF1DF6B}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="19" max="19" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35669316-9340-44B4-8E0A-6A7D95204DAD}">
   <dimension ref="B2:AD2"/>
@@ -19849,6 +21222,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -19857,15 +21239,6 @@
     <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20092,20 +21465,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265FBDB3-DDF0-4483-82AA-C47A8D3E6978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
     <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1DC80E-35C1-431E-869C-5F51C94C1FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
